--- a/Saved_file/EM001/2026_09/sap_data.xlsx
+++ b/Saved_file/EM001/2026_09/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-09-25</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST9041</t>
+          <t>CUST7315</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48488800</v>
+        <v>56825790</v>
       </c>
       <c r="E2" t="n">
-        <v>14165374</v>
+        <v>18271913</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST2690</t>
+          <t>CUST3589</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>51661287</v>
+        <v>58269303</v>
       </c>
       <c r="E3" t="n">
-        <v>16467138</v>
+        <v>15916495</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-09-28</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST8810</t>
+          <t>CUST8327</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>56070489</v>
+        <v>44119565</v>
       </c>
       <c r="E4" t="n">
-        <v>15672397</v>
+        <v>13664698</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST6070</t>
+          <t>CUST5104</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44431287</v>
+        <v>36380656</v>
       </c>
       <c r="E5" t="n">
-        <v>13333170</v>
+        <v>12453387</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST8423</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38151253</v>
+        <v>43493268</v>
       </c>
       <c r="E6" t="n">
-        <v>12173156</v>
+        <v>13774220</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST3969</t>
+          <t>CUST7772</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>53168937</v>
+        <v>54252712</v>
       </c>
       <c r="E7" t="n">
-        <v>15692264</v>
+        <v>17524408</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,12 +794,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST1781</t>
+          <t>CUST8423</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53171592</v>
+        <v>52714294</v>
       </c>
       <c r="E8" t="n">
-        <v>18221551</v>
+        <v>14030963</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-09-28</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST4168</t>
+          <t>CUST5593</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39849645</v>
+        <v>52712144</v>
       </c>
       <c r="E9" t="n">
-        <v>11914924</v>
+        <v>16104765</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,17 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST6070</t>
+          <t>CUST3577</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57388923</v>
+        <v>53997659</v>
       </c>
       <c r="E10" t="n">
-        <v>19687230</v>
+        <v>13680897</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-09-08</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST1577</t>
+          <t>CUST7796</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38187815</v>
+        <v>57074485</v>
       </c>
       <c r="E11" t="n">
-        <v>11540715</v>
+        <v>14772812</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-09-20</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST6490</t>
+          <t>CUST2589</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57865440</v>
+        <v>45029529</v>
       </c>
       <c r="E12" t="n">
-        <v>16011373</v>
+        <v>11605032</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST1577</t>
+          <t>CUST1890</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>38985786</v>
+        <v>39862503</v>
       </c>
       <c r="E13" t="n">
-        <v>12442787</v>
+        <v>12198692</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,12 +1118,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST9588</t>
+          <t>CUST3730</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40797344</v>
+        <v>50782861</v>
       </c>
       <c r="E14" t="n">
-        <v>13939113</v>
+        <v>16883765</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-09-28</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST9569</t>
+          <t>CUST3577</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55501289</v>
+        <v>57344365</v>
       </c>
       <c r="E15" t="n">
-        <v>16177085</v>
+        <v>17674094</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-09-25</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST7040</t>
+          <t>CUST7009</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>45719705</v>
+        <v>53715690</v>
       </c>
       <c r="E16" t="n">
-        <v>15308693</v>
+        <v>16120409</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST9264</t>
+          <t>CUST8694</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>45730624</v>
+        <v>43377751</v>
       </c>
       <c r="E17" t="n">
-        <v>12916882</v>
+        <v>11982145</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST9041</t>
+          <t>CUST7000</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34021033</v>
+        <v>38354246</v>
       </c>
       <c r="E18" t="n">
-        <v>10637311</v>
+        <v>11702993</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST9495</t>
+          <t>CUST7001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48398130</v>
+        <v>32572375</v>
       </c>
       <c r="E19" t="n">
-        <v>12929100</v>
+        <v>10279071</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST1116</t>
+          <t>CUST7083</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39782378</v>
+        <v>39541950</v>
       </c>
       <c r="E20" t="n">
-        <v>10346207</v>
+        <v>10419127</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST9495</t>
+          <t>CUST1356</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>41362867</v>
+        <v>31409864</v>
       </c>
       <c r="E21" t="n">
-        <v>12516648</v>
+        <v>10039729</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1572,25 +1572,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST8372</t>
+          <t>CUST4118</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48206466</v>
+        <v>35590271</v>
       </c>
       <c r="E22" t="n">
-        <v>12248193</v>
+        <v>9365492</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST2523</t>
+          <t>CUST8423</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51592015</v>
+        <v>40816360</v>
       </c>
       <c r="E23" t="n">
-        <v>14556242</v>
+        <v>12763904</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST6931</t>
+          <t>CUST2846</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>44660427</v>
+        <v>37899161</v>
       </c>
       <c r="E24" t="n">
-        <v>13370609</v>
+        <v>11064883</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST1458</t>
+          <t>CUST4208</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51700765</v>
+        <v>44668263</v>
       </c>
       <c r="E25" t="n">
-        <v>15653533</v>
+        <v>15424911</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST3969</t>
+          <t>CUST7001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>49495032</v>
+        <v>52562959</v>
       </c>
       <c r="E26" t="n">
-        <v>13604348</v>
+        <v>13917494</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST8810</t>
+          <t>CUST7000</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35733765</v>
+        <v>54296720</v>
       </c>
       <c r="E27" t="n">
-        <v>12288948</v>
+        <v>17357830</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST3969</t>
+          <t>CUST5635</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58737297</v>
+        <v>37897485</v>
       </c>
       <c r="E28" t="n">
-        <v>18226380</v>
+        <v>11073708</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST4048</t>
+          <t>CUST4093</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>47757389</v>
+        <v>59811956</v>
       </c>
       <c r="E29" t="n">
-        <v>15884047</v>
+        <v>15931624</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,12 +1982,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST1781</t>
+          <t>CUST8832</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30936489</v>
+        <v>52245890</v>
       </c>
       <c r="E30" t="n">
-        <v>10694443</v>
+        <v>17699295</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-09-01</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST7832</t>
+          <t>CUST4118</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45666075</v>
+        <v>52928043</v>
       </c>
       <c r="E31" t="n">
-        <v>13387976</v>
+        <v>17605504</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST1577</t>
+          <t>CUST3904</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30418982</v>
+        <v>47925625</v>
       </c>
       <c r="E32" t="n">
-        <v>8416169</v>
+        <v>15555540</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5338</t>
+          <t>CUST8423</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>41066294</v>
+        <v>56331487</v>
       </c>
       <c r="E33" t="n">
-        <v>11703724</v>
+        <v>18185422</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST2146</t>
+          <t>CUST5635</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>43172484</v>
+        <v>35505174</v>
       </c>
       <c r="E34" t="n">
-        <v>12502362</v>
+        <v>10833492</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST6070</t>
+          <t>CUST7796</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>38589358</v>
+        <v>46559961</v>
       </c>
       <c r="E35" t="n">
-        <v>9859491</v>
+        <v>13565172</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST3859</t>
+          <t>CUST3904</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>45779042</v>
+        <v>45500017</v>
       </c>
       <c r="E36" t="n">
-        <v>12693056</v>
+        <v>14566501</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-09-21</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST6357</t>
+          <t>CUST7009</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>40048132</v>
+        <v>58667199</v>
       </c>
       <c r="E37" t="n">
-        <v>10625624</v>
+        <v>15699416</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST1116</t>
+          <t>CUST8423</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>43609927</v>
+        <v>58759533</v>
       </c>
       <c r="E38" t="n">
-        <v>12191612</v>
+        <v>16461463</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST9041</t>
+          <t>CUST3577</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>56062438</v>
+        <v>46484231</v>
       </c>
       <c r="E39" t="n">
-        <v>17589530</v>
+        <v>11696208</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-09-28</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST5338</t>
+          <t>CUST2846</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>38780256</v>
+        <v>31344663</v>
       </c>
       <c r="E40" t="n">
-        <v>11412543</v>
+        <v>9848253</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2603,24 +2603,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST9041</t>
+          <t>CUST1845</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>33393177</v>
+        <v>54248565</v>
       </c>
       <c r="E41" t="n">
-        <v>9027905</v>
+        <v>15661035</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,12 +2630,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST3398</t>
+          <t>CUST6371</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>58168299</v>
+        <v>49158864</v>
       </c>
       <c r="E42" t="n">
-        <v>14544153</v>
+        <v>13246134</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST9495</t>
+          <t>CUST6371</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>31160988</v>
+        <v>54450668</v>
       </c>
       <c r="E43" t="n">
-        <v>7793028</v>
+        <v>15193050</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST2034</t>
+          <t>CUST1845</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>57757496</v>
+        <v>50900469</v>
       </c>
       <c r="E44" t="n">
-        <v>14467212</v>
+        <v>13114417</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST5125</t>
+          <t>CUST9972</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>51634793</v>
+        <v>59300510</v>
       </c>
       <c r="E45" t="n">
-        <v>16847161</v>
+        <v>16160894</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST1116</t>
+          <t>CUST6202</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>59145217</v>
+        <v>56859158</v>
       </c>
       <c r="E46" t="n">
-        <v>16223938</v>
+        <v>16463951</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST9495</t>
+          <t>CUST7000</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>50174257</v>
+        <v>54354815</v>
       </c>
       <c r="E47" t="n">
-        <v>16809890</v>
+        <v>15134146</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST9697</t>
+          <t>CUST7623</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>47141075</v>
+        <v>59273642</v>
       </c>
       <c r="E48" t="n">
-        <v>14592420</v>
+        <v>19315814</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3035,20 +3035,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST2523</t>
+          <t>CUST3899</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>49711840</v>
+        <v>41140304</v>
       </c>
       <c r="E49" t="n">
-        <v>16728855</v>
+        <v>10399173</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST1048</t>
+          <t>CUST7623</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>34741022</v>
+        <v>37381209</v>
       </c>
       <c r="E50" t="n">
-        <v>10235921</v>
+        <v>12188103</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST7083</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>56429373</v>
+        <v>37907522</v>
       </c>
       <c r="E51" t="n">
-        <v>19544005</v>
+        <v>10835023</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3175,12 +3175,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST3969</t>
+          <t>CUST9691</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>50685259</v>
+        <v>49483320</v>
       </c>
       <c r="E52" t="n">
-        <v>14049635</v>
+        <v>16232969</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST9041</t>
+          <t>CUST1582</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>58326396</v>
+        <v>30090206</v>
       </c>
       <c r="E53" t="n">
-        <v>18202559</v>
+        <v>9928630</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST9697</t>
+          <t>CUST6708</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>55368789</v>
+        <v>55258438</v>
       </c>
       <c r="E54" t="n">
-        <v>14835628</v>
+        <v>17366079</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST9495</t>
+          <t>CUST3589</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>53601821</v>
+        <v>32312754</v>
       </c>
       <c r="E55" t="n">
-        <v>18667356</v>
+        <v>8533126</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST1356</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>50667346</v>
+        <v>39322415</v>
       </c>
       <c r="E56" t="n">
-        <v>15316887</v>
+        <v>13553862</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST8277</t>
+          <t>CUST3577</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>55465657</v>
+        <v>55421396</v>
       </c>
       <c r="E57" t="n">
-        <v>14140068</v>
+        <v>15189669</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST2382</t>
+          <t>CUST1356</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>53069614</v>
+        <v>46999761</v>
       </c>
       <c r="E58" t="n">
-        <v>16497046</v>
+        <v>14161520</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST4168</t>
+          <t>CUST3577</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>58305919</v>
+        <v>55777403</v>
       </c>
       <c r="E59" t="n">
-        <v>18677703</v>
+        <v>14642604</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST2523</t>
+          <t>CUST3899</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>48671067</v>
+        <v>34925283</v>
       </c>
       <c r="E60" t="n">
-        <v>16618555</v>
+        <v>10163810</v>
       </c>
       <c r="F60" t="n">
         <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST4048</t>
+          <t>CUST2017</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>38184028</v>
+        <v>32361634</v>
       </c>
       <c r="E61" t="n">
-        <v>11928328</v>
+        <v>11103927</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-09-05</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST6828</t>
+          <t>CUST3577</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>58269962</v>
+        <v>38267391</v>
       </c>
       <c r="E62" t="n">
-        <v>17603333</v>
+        <v>11741508</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST8810</t>
+          <t>CUST7533</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>32198757</v>
+        <v>47815056</v>
       </c>
       <c r="E63" t="n">
-        <v>9708680</v>
+        <v>14988623</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-09-20</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST1116</t>
+          <t>CUST3975</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>46592739</v>
+        <v>30792848</v>
       </c>
       <c r="E64" t="n">
-        <v>15145586</v>
+        <v>8787202</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3877,12 +3877,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST4048</t>
+          <t>CUST3577</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>49122562</v>
+        <v>38999769</v>
       </c>
       <c r="E65" t="n">
-        <v>12425443</v>
+        <v>12709352</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-09-28</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST7038</t>
+          <t>CUST6275</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>39466775</v>
+        <v>45095014</v>
       </c>
       <c r="E66" t="n">
-        <v>11028217</v>
+        <v>12936530</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST8675</t>
+          <t>CUST6371</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>59761968</v>
+        <v>31807943</v>
       </c>
       <c r="E67" t="n">
-        <v>18218777</v>
+        <v>9402591</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4039,12 +4039,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST5125</t>
+          <t>CUST3589</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>36995217</v>
+        <v>56441308</v>
       </c>
       <c r="E68" t="n">
-        <v>11774658</v>
+        <v>19178630</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST1048</t>
+          <t>CUST3589</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>38653028</v>
+        <v>51099707</v>
       </c>
       <c r="E69" t="n">
-        <v>13399390</v>
+        <v>14157571</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4147,12 +4147,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST8675</t>
+          <t>CUST5635</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>54038206</v>
+        <v>59151410</v>
       </c>
       <c r="E70" t="n">
-        <v>14139559</v>
+        <v>20533930</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST6705</t>
+          <t>CUST8694</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>36017027</v>
+        <v>38920029</v>
       </c>
       <c r="E71" t="n">
-        <v>12481798</v>
+        <v>10215476</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST6705</t>
+          <t>CUST4118</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>45702767</v>
+        <v>34588805</v>
       </c>
       <c r="E72" t="n">
-        <v>13528512</v>
+        <v>10148129</v>
       </c>
       <c r="F72" t="n">
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST2556</t>
+          <t>CUST3975</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>42076488</v>
+        <v>54925690</v>
       </c>
       <c r="E73" t="n">
-        <v>12025270</v>
+        <v>17434410</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4358,17 +4358,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST4220</t>
+          <t>CUST5635</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>49414662</v>
+        <v>39281267</v>
       </c>
       <c r="E74" t="n">
-        <v>13974403</v>
+        <v>10356786</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST4256</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>53470697</v>
+        <v>56219593</v>
       </c>
       <c r="E75" t="n">
-        <v>16391238</v>
+        <v>17331566</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4466,17 +4466,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4493,24 +4493,24 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST8372</t>
+          <t>CUST2017</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>47737003</v>
+        <v>53902605</v>
       </c>
       <c r="E76" t="n">
-        <v>15006292</v>
+        <v>14041799</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-21</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST1781</t>
+          <t>CUST6371</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>36831922</v>
+        <v>59721560</v>
       </c>
       <c r="E77" t="n">
-        <v>12029717</v>
+        <v>18307290</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST9569</t>
+          <t>CUST9401</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>40246692</v>
+        <v>39798996</v>
       </c>
       <c r="E78" t="n">
-        <v>10565274</v>
+        <v>12517020</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4628,17 +4628,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST9041</t>
+          <t>CUST4208</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>37244466</v>
+        <v>32961837</v>
       </c>
       <c r="E79" t="n">
-        <v>10266472</v>
+        <v>11319102</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,17 +4682,17 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST8624</t>
+          <t>CUST1890</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>47600469</v>
+        <v>42009063</v>
       </c>
       <c r="E80" t="n">
-        <v>15795154</v>
+        <v>14049628</v>
       </c>
       <c r="F80" t="n">
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST6931</t>
+          <t>CUST1890</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>39389935</v>
+        <v>49123299</v>
       </c>
       <c r="E81" t="n">
-        <v>10835645</v>
+        <v>14168008</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST9810</t>
+          <t>CUST6575</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>51090257</v>
+        <v>59688928</v>
       </c>
       <c r="E82" t="n">
-        <v>13986301</v>
+        <v>15482619</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4849,12 +4849,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4866,29 +4866,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-09-21</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST8569</t>
+          <t>CUST5104</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>36453841</v>
+        <v>30991648</v>
       </c>
       <c r="E83" t="n">
-        <v>11520560</v>
+        <v>10158879</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-09-05</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST7832</t>
+          <t>CUST9691</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>55309376</v>
+        <v>49272442</v>
       </c>
       <c r="E84" t="n">
-        <v>13909978</v>
+        <v>14640846</v>
       </c>
       <c r="F84" t="n">
         <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-09-01</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST1781</t>
+          <t>CUST5104</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>55969812</v>
+        <v>45148323</v>
       </c>
       <c r="E85" t="n">
-        <v>14980346</v>
+        <v>13351329</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST3859</t>
+          <t>CUST9691</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>52829360</v>
+        <v>51570392</v>
       </c>
       <c r="E86" t="n">
-        <v>18176990</v>
+        <v>16719157</v>
       </c>
       <c r="F86" t="n">
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5082,25 +5082,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST8624</t>
+          <t>CUST4208</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>53204716</v>
+        <v>52647688</v>
       </c>
       <c r="E87" t="n">
-        <v>13932251</v>
+        <v>14243598</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST9041</t>
+          <t>CUST4093</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>43386211</v>
+        <v>55058867</v>
       </c>
       <c r="E88" t="n">
-        <v>12868881</v>
+        <v>17473866</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5173,12 +5173,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5190,29 +5190,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST4295</t>
+          <t>CUST1007</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>40363659</v>
+        <v>59846742</v>
       </c>
       <c r="E89" t="n">
-        <v>13309883</v>
+        <v>20353823</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST2556</t>
+          <t>CUST5976</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>37693476</v>
+        <v>45410458</v>
       </c>
       <c r="E90" t="n">
-        <v>11098102</v>
+        <v>12695357</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,17 +5276,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5298,25 +5298,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST2556</t>
+          <t>CUST8423</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>52182990</v>
+        <v>38705061</v>
       </c>
       <c r="E91" t="n">
-        <v>13475650</v>
+        <v>11304877</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5335,12 +5335,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5352,25 +5352,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST4048</t>
+          <t>CUST1356</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>55610095</v>
+        <v>46156716</v>
       </c>
       <c r="E92" t="n">
-        <v>16865613</v>
+        <v>14644152</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5406,25 +5406,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST3859</t>
+          <t>CUST7009</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>33618407</v>
+        <v>30816431</v>
       </c>
       <c r="E93" t="n">
-        <v>10544442</v>
+        <v>10030188</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5460,29 +5460,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST6357</t>
+          <t>CUST1007</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>59905451</v>
+        <v>47805759</v>
       </c>
       <c r="E94" t="n">
-        <v>20578122</v>
+        <v>13484995</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5492,17 +5492,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST1116</t>
+          <t>CUST1007</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>39461333</v>
+        <v>56035323</v>
       </c>
       <c r="E95" t="n">
-        <v>10646623</v>
+        <v>16188670</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5568,29 +5568,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST9041</t>
+          <t>CUST6371</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>55176643</v>
+        <v>34859580</v>
       </c>
       <c r="E96" t="n">
-        <v>19301555</v>
+        <v>9514793</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5600,17 +5600,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5622,25 +5622,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-09-25</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST4220</t>
+          <t>CUST3577</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>39265036</v>
+        <v>54375464</v>
       </c>
       <c r="E97" t="n">
-        <v>10782836</v>
+        <v>14029581</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -5659,12 +5659,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST6070</t>
+          <t>CUST3904</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>57752055</v>
+        <v>32259028</v>
       </c>
       <c r="E98" t="n">
-        <v>16520987</v>
+        <v>9472699</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5708,17 +5708,17 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5730,25 +5730,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST4671</t>
+          <t>CUST6761</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>43234962</v>
+        <v>54069837</v>
       </c>
       <c r="E99" t="n">
-        <v>11965842</v>
+        <v>18906555</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5784,29 +5784,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST9810</t>
+          <t>CUST3589</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>48714150</v>
+        <v>38091540</v>
       </c>
       <c r="E100" t="n">
-        <v>15584171</v>
+        <v>9717516</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5816,17 +5816,17 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5838,29 +5838,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST7038</t>
+          <t>CUST5114</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>51750034</v>
+        <v>36863207</v>
       </c>
       <c r="E101" t="n">
-        <v>16572566</v>
+        <v>11468887</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5870,17 +5870,17 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5892,29 +5892,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST3398</t>
+          <t>CUST1356</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>44163764</v>
+        <v>31977689</v>
       </c>
       <c r="E102" t="n">
-        <v>13940732</v>
+        <v>10019565</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5924,17 +5924,17 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5946,29 +5946,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST1116</t>
+          <t>CUST7796</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>57580355</v>
+        <v>52890290</v>
       </c>
       <c r="E103" t="n">
-        <v>18827233</v>
+        <v>13616085</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6000,29 +6000,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST1116</t>
+          <t>CUST9691</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>53770320</v>
+        <v>35391961</v>
       </c>
       <c r="E104" t="n">
-        <v>14326924</v>
+        <v>11224347</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6032,17 +6032,17 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6054,25 +6054,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST1116</t>
+          <t>CUST1582</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>31167590</v>
+        <v>53357026</v>
       </c>
       <c r="E105" t="n">
-        <v>8644718</v>
+        <v>18202514</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6086,17 +6086,17 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST6357</t>
+          <t>CUST1582</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>51845405</v>
+        <v>59577782</v>
       </c>
       <c r="E106" t="n">
-        <v>16687614</v>
+        <v>16181971</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -6140,17 +6140,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6162,25 +6162,25 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST7040</t>
+          <t>CUST5593</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>30200445</v>
+        <v>54534673</v>
       </c>
       <c r="E107" t="n">
-        <v>7843048</v>
+        <v>17405451</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -6194,17 +6194,17 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6216,25 +6216,25 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-09-05</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST1458</t>
+          <t>CUST6371</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>38925211</v>
+        <v>52671849</v>
       </c>
       <c r="E108" t="n">
-        <v>11218741</v>
+        <v>17554231</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -6248,17 +6248,17 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6270,29 +6270,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST6070</t>
+          <t>CUST5593</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>33319603</v>
+        <v>57470086</v>
       </c>
       <c r="E109" t="n">
-        <v>8780538</v>
+        <v>18412130</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6307,12 +6307,12 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST9810</t>
+          <t>CUST2017</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>45835029</v>
+        <v>38651786</v>
       </c>
       <c r="E110" t="n">
-        <v>15206937</v>
+        <v>12957160</v>
       </c>
       <c r="F110" t="n">
         <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6356,12 +6356,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -6378,29 +6378,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-09-20</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST3398</t>
+          <t>CUST1009</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>38240583</v>
+        <v>32250421</v>
       </c>
       <c r="E111" t="n">
-        <v>11952272</v>
+        <v>9527820</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6410,17 +6410,17 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6432,25 +6432,25 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST8277</t>
+          <t>CUST7315</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>34981637</v>
+        <v>35403229</v>
       </c>
       <c r="E112" t="n">
-        <v>11205892</v>
+        <v>9826253</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -6464,17 +6464,17 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6486,25 +6486,25 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST3859</t>
+          <t>CUST4093</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>38805203</v>
+        <v>59261820</v>
       </c>
       <c r="E113" t="n">
-        <v>10529422</v>
+        <v>15902030</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -6518,17 +6518,17 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST1781</t>
+          <t>CUST7009</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>47453743</v>
+        <v>58488458</v>
       </c>
       <c r="E114" t="n">
-        <v>15521185</v>
+        <v>18206921</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -6572,17 +6572,17 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6594,25 +6594,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST2690</t>
+          <t>CUST3577</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>58060944</v>
+        <v>31819611</v>
       </c>
       <c r="E115" t="n">
-        <v>20238775</v>
+        <v>10157416</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -6626,17 +6626,17 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6648,25 +6648,25 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-09-05</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST8624</t>
+          <t>CUST8832</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>46610112</v>
+        <v>39113591</v>
       </c>
       <c r="E116" t="n">
-        <v>15713121</v>
+        <v>12439748</v>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -6702,29 +6702,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST1048</t>
+          <t>CUST8832</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>37452489</v>
+        <v>31530787</v>
       </c>
       <c r="E117" t="n">
-        <v>11271027</v>
+        <v>8915830</v>
       </c>
       <c r="F117" t="n">
         <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST9264</t>
+          <t>CUST3899</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>55469447</v>
+        <v>51439594</v>
       </c>
       <c r="E118" t="n">
-        <v>18671491</v>
+        <v>16793425</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -6810,29 +6810,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST7038</t>
+          <t>CUST8832</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>39754729</v>
+        <v>37429472</v>
       </c>
       <c r="E119" t="n">
-        <v>12225912</v>
+        <v>11582407</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6864,25 +6864,25 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-09-21</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST8372</t>
+          <t>CUST5593</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>33779210</v>
+        <v>55203794</v>
       </c>
       <c r="E120" t="n">
-        <v>9868329</v>
+        <v>17890016</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -6896,17 +6896,17 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6918,25 +6918,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST7038</t>
+          <t>CUST3904</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>32774889</v>
+        <v>39261366</v>
       </c>
       <c r="E121" t="n">
-        <v>9998999</v>
+        <v>9866618</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -7017,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.2</v>
+        <v>96.7</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2589057</v>
+        <v>3139057</v>
       </c>
       <c r="E2" t="n">
-        <v>464725</v>
+        <v>596386</v>
       </c>
     </row>
     <row r="3">
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.7</v>
+        <v>97</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2774610</v>
+        <v>11291795</v>
       </c>
       <c r="E3" t="n">
-        <v>779958</v>
+        <v>1936304</v>
       </c>
     </row>
     <row r="4">
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7492038</v>
+        <v>3480497</v>
       </c>
       <c r="E4" t="n">
-        <v>987950</v>
+        <v>564811</v>
       </c>
     </row>
     <row r="5">
@@ -7074,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5137286</v>
+        <v>14710594</v>
       </c>
       <c r="E5" t="n">
-        <v>990352</v>
+        <v>1696737</v>
       </c>
     </row>
     <row r="6">
@@ -7093,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.3</v>
+        <v>90.3</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>8828406</v>
+        <v>5326623</v>
       </c>
       <c r="E6" t="n">
-        <v>1856947</v>
+        <v>1046955</v>
       </c>
     </row>
     <row r="7">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>89.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7786514</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1916169</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>5214622</v>
+        <v>3504018</v>
       </c>
       <c r="E8" t="n">
-        <v>614854</v>
+        <v>826520</v>
       </c>
     </row>
     <row r="9">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.8</v>
+        <v>91.2</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8138953</v>
+        <v>3865895</v>
       </c>
       <c r="E9" t="n">
-        <v>990821</v>
+        <v>971448</v>
       </c>
     </row>
     <row r="10">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.8</v>
+        <v>98.2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>3471902</v>
+        <v>18433876</v>
       </c>
       <c r="E10" t="n">
-        <v>758663</v>
+        <v>4757241</v>
       </c>
     </row>
     <row r="11">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>4815584</v>
+        <v>5214565</v>
       </c>
       <c r="E11" t="n">
-        <v>1068728</v>
+        <v>888112</v>
       </c>
     </row>
     <row r="12">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>6990377</v>
+        <v>13167999</v>
       </c>
       <c r="E12" t="n">
-        <v>1523137</v>
+        <v>2585569</v>
       </c>
     </row>
     <row r="13">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6263001</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1838884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>7502223</v>
+        <v>9376024</v>
       </c>
       <c r="E15" t="n">
-        <v>1240076</v>
+        <v>2561358</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>17106176</v>
+        <v>6006071</v>
       </c>
       <c r="E16" t="n">
-        <v>2770097</v>
+        <v>1024088</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95</v>
+        <v>91.2</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>10945865</v>
+        <v>5299240</v>
       </c>
       <c r="E17" t="n">
-        <v>2133069</v>
+        <v>782441</v>
       </c>
     </row>
     <row r="18">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>10976227</v>
+        <v>2188265</v>
       </c>
       <c r="E18" t="n">
-        <v>2071134</v>
+        <v>487027</v>
       </c>
     </row>
     <row r="19">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>4590636</v>
+        <v>17440845</v>
       </c>
       <c r="E19" t="n">
-        <v>607684</v>
+        <v>2831481</v>
       </c>
     </row>
     <row r="20">
@@ -7359,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>11363265</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2881768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>84.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1371096</v>
+        <v>2831336</v>
       </c>
       <c r="E21" t="n">
-        <v>360967</v>
+        <v>527630</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4257499</v>
+        <v>6230143</v>
       </c>
       <c r="E22" t="n">
-        <v>1052486</v>
+        <v>1843823</v>
       </c>
     </row>
     <row r="23">
@@ -7416,16 +7416,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>96.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>3967059</v>
+        <v>11021594</v>
       </c>
       <c r="E23" t="n">
-        <v>1154358</v>
+        <v>1867072</v>
       </c>
     </row>
     <row r="24">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>6683768</v>
+        <v>9625822</v>
       </c>
       <c r="E24" t="n">
-        <v>1830078</v>
+        <v>2871673</v>
       </c>
     </row>
     <row r="25">
@@ -7454,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>13271553</v>
+        <v>9211288</v>
       </c>
       <c r="E25" t="n">
-        <v>3802286</v>
+        <v>1763532</v>
       </c>
     </row>
     <row r="26">
@@ -7473,16 +7473,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>15784740</v>
+        <v>4807955</v>
       </c>
       <c r="E26" t="n">
-        <v>4444869</v>
+        <v>701413</v>
       </c>
     </row>
     <row r="27">
@@ -7530,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>3785929</v>
+        <v>10942880</v>
       </c>
       <c r="E29" t="n">
-        <v>1081486</v>
+        <v>2578626</v>
       </c>
     </row>
     <row r="30">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>4616587</v>
+        <v>9401185</v>
       </c>
       <c r="E30" t="n">
-        <v>778679</v>
+        <v>2005212</v>
       </c>
     </row>
     <row r="31">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99</v>
+        <v>96.8</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>4448428</v>
+        <v>5996007</v>
       </c>
       <c r="E31" t="n">
-        <v>1262902</v>
+        <v>1628819</v>
       </c>
     </row>
   </sheetData>
